--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3292.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3292.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.104478391575666</v>
+        <v>0.9921649098396301</v>
       </c>
       <c r="B1">
-        <v>2.616164920368322</v>
+        <v>0.9040123224258423</v>
       </c>
       <c r="C1">
-        <v>3.574895722406308</v>
+        <v>3.761794328689575</v>
       </c>
       <c r="D1">
-        <v>2.792194653879518</v>
+        <v>2.834225177764893</v>
       </c>
       <c r="E1">
-        <v>1.123472854139157</v>
+        <v>1.288111925125122</v>
       </c>
     </row>
   </sheetData>
